--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ngf</t>
+  </si>
+  <si>
+    <t>Ntrk1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ngf</t>
-  </si>
-  <si>
-    <t>Ntrk1</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.536689</v>
+      </c>
+      <c r="H2">
+        <v>10.610067</v>
+      </c>
+      <c r="I2">
+        <v>0.8673214943470778</v>
+      </c>
+      <c r="J2">
+        <v>0.8673214943470778</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.6726759999999999</v>
-      </c>
-      <c r="H2">
-        <v>2.018028</v>
-      </c>
-      <c r="I2">
-        <v>0.1010994183758018</v>
-      </c>
-      <c r="J2">
-        <v>0.1010994183758018</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.05507833333333333</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N2">
-        <v>0.165235</v>
+        <v>0.160544</v>
       </c>
       <c r="O2">
-        <v>0.7874745626200381</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P2">
-        <v>0.7874745626200382</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q2">
-        <v>0.03704987295333333</v>
+        <v>0.1892647329386666</v>
       </c>
       <c r="R2">
-        <v>0.33344885658</v>
+        <v>1.703382596448</v>
       </c>
       <c r="S2">
-        <v>0.07961322026662473</v>
+        <v>0.3630996309854552</v>
       </c>
       <c r="T2">
-        <v>0.07961322026662475</v>
+        <v>0.3630996309854551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,72 +581,72 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6726759999999999</v>
+        <v>3.536689</v>
       </c>
       <c r="H3">
-        <v>2.018028</v>
+        <v>10.610067</v>
       </c>
       <c r="I3">
-        <v>0.1010994183758018</v>
+        <v>0.8673214943470778</v>
       </c>
       <c r="J3">
-        <v>0.1010994183758018</v>
+        <v>0.8673214943470778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01486466666666667</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N3">
-        <v>0.044594</v>
+        <v>0.165235</v>
       </c>
       <c r="O3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q3">
-        <v>0.009999104514666665</v>
+        <v>0.1947949356383333</v>
       </c>
       <c r="R3">
-        <v>0.08999194063199999</v>
+        <v>1.753154420745</v>
       </c>
       <c r="S3">
-        <v>0.02148619810917701</v>
+        <v>0.3737091858050235</v>
       </c>
       <c r="T3">
-        <v>0.02148619810917702</v>
+        <v>0.3737091858050234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,40 +664,40 @@
         <v>10.610067</v>
       </c>
       <c r="I4">
-        <v>0.5315444595557087</v>
+        <v>0.8673214943470778</v>
       </c>
       <c r="J4">
-        <v>0.5315444595557088</v>
+        <v>0.8673214943470778</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05507833333333333</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N4">
-        <v>0.165235</v>
+        <v>0.057706</v>
       </c>
       <c r="O4">
-        <v>0.7874745626200381</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P4">
-        <v>0.7874745626200382</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q4">
-        <v>0.1947949356383333</v>
+        <v>0.06802939181133333</v>
       </c>
       <c r="R4">
-        <v>1.753154420745</v>
+        <v>0.6122645263019999</v>
       </c>
       <c r="S4">
-        <v>0.4185777408017363</v>
+        <v>0.1305126775565993</v>
       </c>
       <c r="T4">
-        <v>0.4185777408017364</v>
+        <v>0.1305126775565993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.536689</v>
+        <v>0.541025</v>
       </c>
       <c r="H5">
-        <v>10.610067</v>
+        <v>1.623075</v>
       </c>
       <c r="I5">
-        <v>0.5315444595557087</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="J5">
-        <v>0.5315444595557088</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,42 +738,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01486466666666667</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N5">
-        <v>0.044594</v>
+        <v>0.160544</v>
       </c>
       <c r="O5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q5">
-        <v>0.05257170308866666</v>
+        <v>0.02895277253333333</v>
       </c>
       <c r="R5">
-        <v>0.4731453277979999</v>
+        <v>0.2605749528</v>
       </c>
       <c r="S5">
-        <v>0.1129667187539724</v>
+        <v>0.05554516607309998</v>
       </c>
       <c r="T5">
-        <v>0.1129667187539724</v>
+        <v>0.05554516607309997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.444244</v>
+        <v>0.541025</v>
       </c>
       <c r="H6">
-        <v>7.332732</v>
+        <v>1.623075</v>
       </c>
       <c r="I6">
-        <v>0.3673561220684894</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="J6">
-        <v>0.3673561220684895</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,42 +800,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05507833333333333</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N6">
         <v>0.165235</v>
       </c>
       <c r="O6">
-        <v>0.7874745626200381</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P6">
-        <v>0.7874745626200382</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q6">
-        <v>0.13462488578</v>
+        <v>0.02979875529166667</v>
       </c>
       <c r="R6">
-        <v>1.21162397202</v>
+        <v>0.268188797625</v>
       </c>
       <c r="S6">
-        <v>0.289283601551677</v>
+        <v>0.05716816272229842</v>
       </c>
       <c r="T6">
-        <v>0.2892836015516771</v>
+        <v>0.05716816272229841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.444244</v>
+        <v>0.541025</v>
       </c>
       <c r="H7">
-        <v>7.332732</v>
+        <v>1.623075</v>
       </c>
       <c r="I7">
-        <v>0.3673561220684894</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="J7">
-        <v>0.3673561220684895</v>
+        <v>0.1326785056529222</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01486466666666667</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N7">
-        <v>0.044594</v>
+        <v>0.057706</v>
       </c>
       <c r="O7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q7">
-        <v>0.036332872312</v>
+        <v>0.01040679621666667</v>
       </c>
       <c r="R7">
-        <v>0.326995850808</v>
+        <v>0.09366116595</v>
       </c>
       <c r="S7">
-        <v>0.07807252051681235</v>
+        <v>0.01996517685752384</v>
       </c>
       <c r="T7">
-        <v>0.07807252051681236</v>
+        <v>0.01996517685752384</v>
       </c>
     </row>
   </sheetData>
